--- a/reference/hardware/v0.4/BOMs/v0.4.3_bom.xlsx
+++ b/reference/hardware/v0.4/BOMs/v0.4.3_bom.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/Arduino/speeduino/reference/hardware/v0.4/BOMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2EE3F3-356B-CE47-8295-B0FB53071B1D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Josh Stewart</author>
   </authors>
   <commentList>
-    <comment ref="C30" authorId="0">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -882,11 +883,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -928,6 +929,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1262,6 +1264,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1588,25 +1593,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="113" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="18.83203125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="18" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="53.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="17.1640625" customWidth="1"/>
     <col min="13" max="14" width="28" customWidth="1"/>
     <col min="21" max="21" width="47.83203125" customWidth="1"/>
@@ -1615,7 +1622,7 @@
     <col min="25" max="25" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="27" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>162</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="17" thickBot="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="4"/>
@@ -1727,7 +1734,7 @@
         <v xml:space="preserve">x </v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="17" thickBot="1">
       <c r="A3" s="19">
         <f>LEN(C3)-LEN(SUBSTITUTE(C3,",",""))+1</f>
         <v>1</v>
@@ -1814,7 +1821,7 @@
         <v>T356G106K035AT 1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="17" thickBot="1">
       <c r="A4" s="19">
         <f>LEN(C4)-LEN(SUBSTITUTE(C4,",",""))+1</f>
         <v>6</v>
@@ -1901,7 +1908,7 @@
         <v>K224K20X7RF5UH5 6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="27" thickBot="1">
       <c r="A5" s="19">
         <f>LEN(C5)-LEN(SUBSTITUTE(C5,",",""))+1</f>
         <v>7</v>
@@ -1988,7 +1995,7 @@
         <v>C322C104M5R5TA7301 7</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="17" thickBot="1">
       <c r="A6" s="19">
         <f>LEN(C6)-LEN(SUBSTITUTE(C6,",",""))+1</f>
         <v>1</v>
@@ -2075,7 +2082,7 @@
         <v>T356F476K006AT 1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="17" thickBot="1">
       <c r="A7" s="19">
         <f t="shared" ref="A7:A9" si="10">LEN(C7)-LEN(SUBSTITUTE(C7,",",""))+1</f>
         <v>1</v>
@@ -2162,7 +2169,7 @@
         <v>AR215F334K4R 1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="17" thickBot="1">
       <c r="A8" s="19">
         <f t="shared" si="10"/>
         <v>2</v>
@@ -2249,7 +2256,7 @@
         <v>C317C103K5R5TA 2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="17" thickBot="1">
       <c r="A9" s="19">
         <f t="shared" si="10"/>
         <v>3</v>
@@ -2336,7 +2343,7 @@
         <v>C330C105M5U5TA 3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="17" thickBot="1">
       <c r="A10" s="19">
         <f>LEN(C10)-LEN(SUBSTITUTE(C10,",",""))+1</f>
         <v>1</v>
@@ -2421,7 +2428,7 @@
         <v>C317C472K1R5TA 1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="17" thickBot="1">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="4"/>
@@ -2460,7 +2467,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="17" thickBot="1">
       <c r="A12" s="19">
         <f>LEN(C12)-LEN(SUBSTITUTE(C12,",",""))+1</f>
         <v>1</v>
@@ -2547,7 +2554,7 @@
         <v>1N5919BG 1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="27" thickBot="1">
       <c r="A13" s="19">
         <f>LEN(C13)-LEN(SUBSTITUTE(C13,",",""))+1</f>
         <v>2</v>
@@ -2634,7 +2641,7 @@
         <v>1N5818-TP 2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="17" thickBot="1">
       <c r="A14" s="19">
         <f>LEN(C14)-LEN(SUBSTITUTE(C14,",",""))+1</f>
         <v>8</v>
@@ -2717,7 +2724,7 @@
         <v>LTL-4221N 8</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="27" thickBot="1">
       <c r="A15" s="19">
         <f>LEN(C15)-LEN(SUBSTITUTE(C15,",",""))+1</f>
         <v>4</v>
@@ -2804,7 +2811,7 @@
         <v>1N4004-TP 4</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="17" thickBot="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="4"/>
@@ -2847,7 +2854,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17" thickBot="1">
       <c r="A17" s="19">
         <v>1</v>
       </c>
@@ -2933,7 +2940,7 @@
         <v>ERZ-V14D220 1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17" thickBot="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="4"/>
@@ -2982,7 +2989,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="27" thickBot="1">
       <c r="A19" s="19">
         <v>1</v>
       </c>
@@ -3066,7 +3073,7 @@
         <v>OSTTA020161 1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17" thickBot="1">
       <c r="A20" s="19">
         <v>5</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>969102-0000-DA 5</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="27" thickBot="1">
       <c r="A21" s="19">
         <v>4</v>
       </c>
@@ -3230,7 +3237,7 @@
         <v>PREC040SAAN-RC.. 4</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="40" thickBot="1">
       <c r="A22" s="19">
         <v>1</v>
       </c>
@@ -3313,7 +3320,7 @@
         <v>3020-40-0100-00 1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17" thickBot="1">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="4"/>
@@ -3356,7 +3363,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="27" thickBot="1">
       <c r="A24" s="19">
         <f>LEN(C24)-LEN(SUBSTITUTE(C24,",",""))+1</f>
         <v>8</v>
@@ -3443,7 +3450,7 @@
         <v>STP75NS04Z 8</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17" thickBot="1">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="4"/>
@@ -3482,7 +3489,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17" thickBot="1">
       <c r="A26" s="19">
         <f>LEN(C26)-LEN(SUBSTITUTE(C26,",",""))+1</f>
         <v>1</v>
@@ -3567,7 +3574,7 @@
         <v>MFR-25FBF52-10K 1</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="27" thickBot="1">
       <c r="A27" s="19">
         <f>LEN(C27)-LEN(SUBSTITUTE(C27,",",""))+1</f>
         <v>17</v>
@@ -3652,7 +3659,7 @@
         <v>MFR-25FBF52-1K 17</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17" thickBot="1">
       <c r="A28" s="19">
         <f>LEN(C28)-LEN(SUBSTITUTE(C28,",",""))+1</f>
         <v>4</v>
@@ -3737,7 +3744,7 @@
         <v>1622545-1 4</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="27" thickBot="1">
       <c r="A29" s="19">
         <f>LEN(C29)-LEN(SUBSTITUTE(C29,",",""))+1</f>
         <v>6</v>
@@ -3822,7 +3829,7 @@
         <v>RNF14FTD470R 6</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="27" thickBot="1">
       <c r="A30" s="19">
         <f t="shared" si="21"/>
         <v>7</v>
@@ -3909,7 +3916,7 @@
         <v>MFR-25FBF52-2K49 7</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17" thickBot="1">
       <c r="A31" s="19">
         <v>1</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>MFP-25BRD52-3K9 1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17" thickBot="1">
       <c r="A32" s="19">
         <f t="shared" ref="A32:A33" si="25">LEN(C32)-LEN(SUBSTITUTE(C32,",",""))+1</f>
         <v>12</v>
@@ -4080,7 +4087,7 @@
         <v>MFR-25FBF52-100K 12</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="17" thickBot="1">
       <c r="A33" s="19">
         <f t="shared" si="25"/>
         <v>4</v>
@@ -4165,7 +4172,7 @@
         <v>FMP200FRF52-160R 4</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="17" thickBot="1">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="4"/>
@@ -4204,7 +4211,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="27" thickBot="1">
       <c r="A35" s="19">
         <v>1</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>LM2940T-5.0/NOPB 1</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="27" thickBot="1">
       <c r="A36" s="19">
         <v>1</v>
       </c>
@@ -4374,7 +4381,7 @@
         <v>MPX4250AP 1</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="27" thickBot="1">
       <c r="A37" s="19">
         <v>2</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>TC4424EPA 2</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="17" thickBot="1">
       <c r="A38" s="19">
         <v>1</v>
       </c>
@@ -4545,7 +4552,7 @@
         <v>SP721APP 1</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="17" thickBot="1">
       <c r="A39" s="19">
         <v>3</v>
       </c>
@@ -4622,7 +4629,7 @@
         <v>AR08-HZL-TT-R 3</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="17" thickBot="1">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="4"/>
@@ -4657,7 +4664,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="27" thickBot="1">
       <c r="A41" s="17">
         <v>1</v>
       </c>
@@ -4726,7 +4733,7 @@
         <v>546-1455N1202|1</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="17" thickBot="1">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="4"/>
@@ -4757,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="17" thickBot="1">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="4" t="s">
@@ -4792,7 +4799,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="17" thickBot="1">
       <c r="A44" s="17">
         <v>1</v>
       </c>
@@ -4844,7 +4851,7 @@
       </c>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="17" thickBot="1">
       <c r="A45" s="17">
         <v>1</v>
       </c>
@@ -4879,7 +4886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="17" thickBot="1">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="4"/>
@@ -4926,20 +4933,20 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" display="478-1910-ND"/>
-    <hyperlink ref="M13" r:id="rId2"/>
-    <hyperlink ref="M17" r:id="rId3"/>
-    <hyperlink ref="M26" r:id="rId4"/>
-    <hyperlink ref="M30" r:id="rId5" display="985-1047-1-ND"/>
-    <hyperlink ref="M31" r:id="rId6"/>
-    <hyperlink ref="M36" r:id="rId7"/>
-    <hyperlink ref="M3" r:id="rId8" display="478-1842-ND"/>
-    <hyperlink ref="M7" r:id="rId9" display="445-5312-ND"/>
-    <hyperlink ref="M8" r:id="rId10" display="399-4148-ND"/>
-    <hyperlink ref="M32" r:id="rId11"/>
+    <hyperlink ref="M6" r:id="rId1" display="478-1910-ND" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M30" r:id="rId5" display="985-1047-1-ND" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M3" r:id="rId8" display="478-1842-ND" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M7" r:id="rId9" display="445-5312-ND" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M8" r:id="rId10" display="399-4148-ND" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M32" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="21" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" copies="2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="27" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>